--- a/biology/Botanique/Ayapana/Ayapana.xlsx
+++ b/biology/Botanique/Ayapana/Ayapana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ayapana est un genre de plantes à fleurs de la famille des Asteraceae. 
-Il comprend 14[1] espèces de plantes pérennes herbacées originaires d'Amérique tropicale. 
-Ce genre a été créé par le botaniste Édouard Spach en 1841[2] à partir du nom vernaculaire d'une espèce sud-américaine. Il est proche du genre Eupatorium dont certaines espèces ont été transférées dans Ayapana. Les feuilles de l'espèce Ayapana triplinervis sont utilisées pour leurs propriétés médicinales.
+Il comprend 14 espèces de plantes pérennes herbacées originaires d'Amérique tropicale. 
+Ce genre a été créé par le botaniste Édouard Spach en 1841 à partir du nom vernaculaire d'une espèce sud-américaine. Il est proche du genre Eupatorium dont certaines espèces ont été transférées dans Ayapana. Les feuilles de l'espèce Ayapana triplinervis sont utilisées pour leurs propriétés médicinales.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon eFloras Bolivia[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon eFloras Bolivia :
 Ayapana amygdalina
 Ayapana lanceolata
 Ayapana stenolepis
 Ageratina riparia
-Selon ITIS      (4 Aug 2011)[4] :
+Selon ITIS      (4 Aug 2011) :
 Ayapana triplinervis (Vahl) King &amp; H. Rob.
 Selon UICN
 Ayapana ecuadorensis - espèce en danger</t>
